--- a/2020/cursos/artistica/Undecimo/Listados Artistica 11-2.xlsx
+++ b/2020/cursos/artistica/Undecimo/Listados Artistica 11-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\artistica\undecimo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D534D6F-E596-496D-B4C0-13669310510F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6492CAE1-B6B2-455E-817B-52C0FE925C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
   <si>
     <t>Codigo</t>
   </si>
@@ -534,10 +534,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D37"/>
+  <dimension ref="A3:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,11 +547,11 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -562,8 +564,11 @@
       <c r="D3" s="6">
         <v>44019</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1601</v>
       </c>
@@ -573,8 +578,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>870</v>
       </c>
@@ -584,8 +590,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3820</v>
       </c>
@@ -595,8 +604,9 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>799</v>
       </c>
@@ -609,8 +619,11 @@
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3601</v>
       </c>
@@ -620,8 +633,9 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4059</v>
       </c>
@@ -634,8 +648,11 @@
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2757</v>
       </c>
@@ -648,8 +665,11 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1167</v>
       </c>
@@ -659,8 +679,9 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>771</v>
       </c>
@@ -673,8 +694,9 @@
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>805</v>
       </c>
@@ -684,8 +706,9 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1521</v>
       </c>
@@ -695,8 +718,11 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>814</v>
       </c>
@@ -706,8 +732,11 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>851</v>
       </c>
@@ -720,8 +749,9 @@
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1391</v>
       </c>
@@ -731,8 +761,9 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4304</v>
       </c>
@@ -742,8 +773,9 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>3548</v>
       </c>
@@ -756,8 +788,11 @@
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>777</v>
       </c>
@@ -770,8 +805,11 @@
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4305</v>
       </c>
@@ -784,8 +822,11 @@
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2459</v>
       </c>
@@ -798,8 +839,11 @@
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3188</v>
       </c>
@@ -812,8 +856,11 @@
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3668</v>
       </c>
@@ -826,8 +873,11 @@
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3186</v>
       </c>
@@ -840,8 +890,11 @@
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>746</v>
       </c>
@@ -854,8 +907,9 @@
       <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>4058</v>
       </c>
@@ -868,8 +922,11 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>829</v>
       </c>
@@ -879,8 +936,11 @@
       <c r="C28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>749</v>
       </c>
@@ -890,8 +950,11 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1424</v>
       </c>
@@ -904,8 +967,11 @@
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>938</v>
       </c>
@@ -918,8 +984,11 @@
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>940</v>
       </c>
@@ -929,8 +998,11 @@
       <c r="C32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1477</v>
       </c>
@@ -940,8 +1012,9 @@
       <c r="C33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1462</v>
       </c>
@@ -954,8 +1027,11 @@
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2111</v>
       </c>
@@ -968,8 +1044,11 @@
       <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>754</v>
       </c>
@@ -982,14 +1061,21 @@
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="7">
         <f>COUNTA(D4:D36)</f>
         <v>19</v>
+      </c>
+      <c r="E37" s="7">
+        <f>COUNTA(E4:E36)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
